--- a/publication/web-root/exampleig/CodeSystem-hla-genename-cs.xlsx
+++ b/publication/web-root/exampleig/CodeSystem-hla-genename-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T15:55:17-05:00</t>
+    <t>2023-05-02T10:49:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/publication/web-root/exampleig/CodeSystem-hla-genename-cs.xlsx
+++ b/publication/web-root/exampleig/CodeSystem-hla-genename-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T10:49:48-05:00</t>
+    <t>2023-05-02T11:11:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/publication/web-root/exampleig/CodeSystem-hla-genename-cs.xlsx
+++ b/publication/web-root/exampleig/CodeSystem-hla-genename-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T11:11:03-05:00</t>
+    <t>2023-05-02T15:00:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
